--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\UiPath\Spectrum-Task-Email-Excel-Regex\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA94576-01F6-4EC2-B2DD-39B3737C65A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D519D760-9C2A-4776-A87C-73A0EF964E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Description (Assets will always overwrite other config)</t>
-  </si>
-  <si>
     <t>SenderEmail</t>
   </si>
   <si>
@@ -43,9 +40,6 @@
   </si>
   <si>
     <t>Body</t>
-  </si>
-  <si>
-    <t>aniket.n@spectrum7tech.com</t>
   </si>
   <si>
     <t>aniketkamalkar@gmail.com</t>
@@ -110,6 +104,48 @@
   <si>
     <t>((\+91\s)?\d{3,5}(-)?\d*)</t>
   </si>
+  <si>
+    <t>priyadharshini.r@spectrum7tech.com</t>
+  </si>
+  <si>
+    <t>Sender email address</t>
+  </si>
+  <si>
+    <t>Receiver email address</t>
+  </si>
+  <si>
+    <t>Email subject line</t>
+  </si>
+  <si>
+    <t>Customise Email Body</t>
+  </si>
+  <si>
+    <t>Sender Name</t>
+  </si>
+  <si>
+    <t>SMTP Port Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMTP Server </t>
+  </si>
+  <si>
+    <t>Attachment path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RegEx Input String </t>
+  </si>
+  <si>
+    <t>RegEx pattern for Phone Number</t>
+  </si>
+  <si>
+    <t>Manually created Test Excel File value chcek (Dummy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t>aniket.n@spectrum7tech.com</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -169,6 +205,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,7 +529,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -534,104 +576,129 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4">
         <v>465</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>19</v>
+      <c r="C18" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="C20" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1608,7 +1675,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1656,22 +1723,27 @@
     <row r="2" spans="1:26">
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:26">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="3"/>
+    <row r="3" spans="1:26" ht="45">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2670,7 +2742,7 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2688,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2716,10 +2788,13 @@
     <row r="2" spans="1:25" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:25" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\UiPath\Spectrum-Task-Email-Excel-Regex\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D519D760-9C2A-4776-A87C-73A0EF964E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446EAD1E-2EC7-4FEE-B10B-452C870EFC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -94,11 +94,6 @@
     <t>RegexInputString</t>
   </si>
   <si>
-    <t>Sammb +91 9089877890 email:bkklk@gmail.com_x000D_
-mob 91789868976 v. bjhuu  bjhuu@gmail.com_x000D_
-SAM phone: 91372-78309</t>
-  </si>
-  <si>
     <t>PhoneNumberPattern</t>
   </si>
   <si>
@@ -144,7 +139,9 @@
     <t xml:space="preserve">Description </t>
   </si>
   <si>
-    <t>aniket.n@spectrum7tech.com</t>
+    <t>Sammb +91 9089877890 email:bkklk@gmail.com
+mob 91789868976 v. bjhuu  bjhuu@gmail.com
+SAM phone: 91372-78309</t>
   </si>
 </sst>
 </file>
@@ -529,7 +526,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -582,7 +579,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
@@ -591,10 +588,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
@@ -606,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
@@ -618,7 +615,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -630,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -654,7 +651,7 @@
         <v>465</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
@@ -666,7 +663,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1"/>
@@ -678,15 +675,11 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1">
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1675,7 +1668,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1728,22 +1721,22 @@
         <v>21</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2760,7 +2753,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2794,7 +2787,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\UiPath\Spectrum-Task-Email-Excel-Regex\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UiPath\Spectrum Task\Spectrum-Task-Email-Excel-Regex\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446EAD1E-2EC7-4FEE-B10B-452C870EFC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5068A1F-E46A-4C03-B10D-44BD6A2968FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -78,70 +78,83 @@
     <t>smtp.gmail.com</t>
   </si>
   <si>
+    <t>TestExcelPath</t>
+  </si>
+  <si>
+    <t>Data\Test.xlsx</t>
+  </si>
+  <si>
+    <t>RegexInputString</t>
+  </si>
+  <si>
+    <t>PhoneNumberPattern</t>
+  </si>
+  <si>
+    <t>((\+91\s)?\d{3,5}(-)?\d*)</t>
+  </si>
+  <si>
+    <t>priyadharshini.r@spectrum7tech.com</t>
+  </si>
+  <si>
+    <t>Sender email address</t>
+  </si>
+  <si>
+    <t>Receiver email address</t>
+  </si>
+  <si>
+    <t>Email subject line</t>
+  </si>
+  <si>
+    <t>Customise Email Body</t>
+  </si>
+  <si>
+    <t>Sender Name</t>
+  </si>
+  <si>
+    <t>SMTP Port Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMTP Server </t>
+  </si>
+  <si>
+    <t>Attachment path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RegEx Input String </t>
+  </si>
+  <si>
+    <t>RegEx pattern for Phone Number</t>
+  </si>
+  <si>
+    <t>Manually created Test Excel File value chcek (Dummy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t>Sammb +91 9089877890 email:bkklk@gmail.com
+mob 91789868976 v. bjhuu  bjhuu@gmail.com
+SAM phone: 91372-78309</t>
+  </si>
+  <si>
+    <t>BodyWithoutAttach</t>
+  </si>
+  <si>
     <t>Hi {0},
-I am {1}. I have 2 years of expirence in UiPath. I have attached my resume to this mail.
+I am {1}. I have 2 years of expirence in UiPath.
+I didn't find resume in folder.
+Regards,
+{2}</t>
+  </si>
+  <si>
+    <t>Email Body without Attachment</t>
+  </si>
+  <si>
+    <t>Hi {0},
+I am {1} I have 2 yeras of expirence in UiPath. I have attached my resume to this mail.
 Just have a look and let me know your inputs.
 Regards,
 {2}</t>
-  </si>
-  <si>
-    <t>TestExcelPath</t>
-  </si>
-  <si>
-    <t>Data\Test.xlsx</t>
-  </si>
-  <si>
-    <t>RegexInputString</t>
-  </si>
-  <si>
-    <t>PhoneNumberPattern</t>
-  </si>
-  <si>
-    <t>((\+91\s)?\d{3,5}(-)?\d*)</t>
-  </si>
-  <si>
-    <t>priyadharshini.r@spectrum7tech.com</t>
-  </si>
-  <si>
-    <t>Sender email address</t>
-  </si>
-  <si>
-    <t>Receiver email address</t>
-  </si>
-  <si>
-    <t>Email subject line</t>
-  </si>
-  <si>
-    <t>Customise Email Body</t>
-  </si>
-  <si>
-    <t>Sender Name</t>
-  </si>
-  <si>
-    <t>SMTP Port Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMTP Server </t>
-  </si>
-  <si>
-    <t>Attachment path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RegEx Input String </t>
-  </si>
-  <si>
-    <t>RegEx pattern for Phone Number</t>
-  </si>
-  <si>
-    <t>Manually created Test Excel File value chcek (Dummy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description </t>
-  </si>
-  <si>
-    <t>Sammb +91 9089877890 email:bkklk@gmail.com
-mob 91789868976 v. bjhuu  bjhuu@gmail.com
-SAM phone: 91372-78309</t>
   </si>
 </sst>
 </file>
@@ -526,7 +539,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -579,7 +592,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
@@ -588,10 +601,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
@@ -603,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
@@ -612,10 +625,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -627,7 +640,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -651,7 +664,7 @@
         <v>465</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
@@ -663,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1"/>
@@ -675,11 +688,21 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1718,25 +1741,25 @@
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2753,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2781,13 +2804,13 @@
     <row r="2" spans="1:25" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:25" ht="14.25" customHeight="1">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1"/>
